--- a/Data/EC/NIT-8300677060.xlsx
+++ b/Data/EC/NIT-8300677060.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E8F1F3-BFEE-4C17-8C20-F78F04225065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41DA4041-7BA5-4DBD-8948-8A6AE27322D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D917D3E5-6A1F-4375-AE3B-61B50083D842}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C3458654-353B-4440-9938-9A1858DAC8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,10 +71,13 @@
     <t>LUIS ALONSO MERCADO PEÑATE</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -488,7 +491,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0286B102-3D8B-0119-198E-7419825A5892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EB3159-E96D-AD31-2047-215D889DD530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,8 +842,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B6BE9-1EC3-4381-B62A-BEACE10CA3FC}">
-  <dimension ref="B2:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A8D7A1-9914-4027-9229-95762898849C}">
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -864,7 +867,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -909,7 +912,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -941,12 +944,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>93333</v>
+        <v>173333</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -957,17 +960,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -994,13 +997,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1017,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>13333</v>
+        <v>80000</v>
       </c>
       <c r="G16" s="18">
         <v>2000000</v>
@@ -1027,42 +1030,54 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="18">
         <v>80000</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="18">
         <v>2000000</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="H22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="24">
+        <v>13333</v>
+      </c>
+      <c r="G18" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" s="32"/>
       <c r="H23" s="1" t="s">
@@ -1071,12 +1086,23 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H22:J22"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
